--- a/output/vote_results/vote_results_faster.xlsx
+++ b/output/vote_results/vote_results_faster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>image_0000.jpg</t>
+          <t>image_0001.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lotus</t>
+          <t>invalid_stamp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>invalid</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,11 +501,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>invalid symbol or invalid stamp</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>242.7846318532755</v>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -514,12 +516,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>image_0001.jpg</t>
+          <t>image_0002.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,7 +545,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>472.7187979212188</v>
+        <v>210.9126280821917</v>
       </c>
     </row>
     <row r="4">
@@ -552,12 +554,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>image_0002.jpg</t>
+          <t>image_0003.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ladder</t>
+          <t>torch_light</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -567,21 +569,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>invalid</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>invalid</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>invalid symbol or invalid stamp</t>
+          <t>valid stamp and valid symbol</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>220.9255132335796</v>
+        <v>235.0477977554019</v>
       </c>
     </row>
     <row r="5">
@@ -590,12 +592,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>image_0003.jpg</t>
+          <t>image_0004.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sun</t>
+          <t>multiple stamp detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,11 +617,13 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>invalid symbol or invalid stamp</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>246.4684838580966</v>
+          <t>multi stamp</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -628,17 +632,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>image_0004.jpg</t>
+          <t>image_0005.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nepali_jug</t>
+          <t>multiple stamp detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>invalid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -653,11 +657,3689 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>multi stamp</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>image_0006.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>image_0007.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>woman_man</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>254.9014286054353</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>image_0008.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>image_0009.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tiger</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>279.7056477497226</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>image_0010.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>image_0011.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pen</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>221.3706784082989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>image_0012.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>image_0013.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>candle_light</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>231.0213009692699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>image_0014.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>image_0015.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>image_0016.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>conch</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>170.8101094421383</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>image_0017.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>image_0018.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>217.9875925105671</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>image_0019.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>nepali_madal</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>279.6352651142298</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>image_0020.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>image_0021.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>image_0022.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ladder</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>252.1024996354027</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>image_0023.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>image_0024.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>image_0025.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mother_and_child</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>230.1497896401355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>image_0026.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>image_0027.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>image_0028.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>pen</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>217.5640403811997</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>image_0029.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>image_0030.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>image_0031.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>image_0032.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>water_glass</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>218.6880024308394</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>image_0033.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>image_0034.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>image_0035.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>torch_light</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>212.4788586736185</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>image_0036.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>image_0037.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>image_0038.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>water_jug</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>222.6661387893459</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>image_0039.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>image_0040.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>nepali_cap</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>171.7732543430782</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>image_0041.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>image_0042.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>nepali_small_basket</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>222.9806434599321</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>image_0043.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>nepali_cap</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>171.696385289604</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>image_0044.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>image_0045.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>image_0046.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>image_0047.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>star</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>248.1163019023179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>image_0048.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>star</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>174.7015616612504</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>image_0049.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>image_0050.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>236.6591341256352</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>image_0051.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>sheep</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>311.4613843177815</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>image_0052.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>star</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>243.4882816152337</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>image_0053.jpg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>image_0054.jpg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>owl</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>invalid symbol or invalid stamp</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>215.7153379925342</v>
+      <c r="H55" t="n">
+        <v>216.298892279556</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>image_0055.jpg</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>image_0056.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>image_0057.jpg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>image_0058.jpg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ladder</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>175.6116436507062</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>image_0059.jpg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>image_0060.jpg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>sun</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>232.9059785800611</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>image_0061.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>image_0062.jpg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ladder</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>767.5472224609676</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>image_0063.jpg</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>image_0064.jpg</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>roaster</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>181.1891558079265</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>image_0065.jpg</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>image_0066.jpg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>image_0067.jpg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>image_0068.jpg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pen</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>242.7245179349704</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>image_0069.jpg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>umbrella</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>218.2935532028131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>image_0070.jpg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>multiple stamp detected</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>multi stamp</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>image_0071.jpg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>image_0072.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ladder</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>703.5845759713586</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>image_0073.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>image_0074.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hammer_scythe</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>217.4172285965843</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>image_0075.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>no vote</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>image_0076.jpg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>hand_palm</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>invalid symbol or invalid stamp</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>212.731280152437</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>image_0077.jpg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>image_0078.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>loud_speaker</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>249.095394143961</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>image_0079.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>image_0080.jpg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>nepali_big_basket</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>172.9682705184662</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>image_0081.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>image_0082.jpg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>loud_speaker</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>235.8495106787738</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>image_0083.jpg</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>image_0084.jpg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>lotus</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>461.8255690131473</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>image_0085.jpg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>image_0086.jpg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>image_0087.jpg</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>woman_man</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>212.2772826935303</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>image_0088.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>241.580981523002</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>image_0089.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>multiple stamp detected</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>multi stamp</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>image_0090.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>image_0091.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>288.7969939666026</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>image_0092.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>image_0093.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>215.2541276369375</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>image_0094.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>image_0095.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>image_0096.jpg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>candle_light</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>397.7985906604223</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>image_0097.jpg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>invalid_stamp</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>invalid</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>image_0098.jpg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>303.1119628943061</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>image_0099.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>tiger</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>valid stamp and valid symbol</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>226.22580428704</v>
       </c>
     </row>
   </sheetData>

--- a/output/vote_results/vote_results_faster.xlsx
+++ b/output/vote_results/vote_results_faster.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>image_0018.jpg</t>
+          <t>image_0017.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>invalid_stamp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,11 +501,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>invalid symbol or invalid stamp</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>237.3010746068453</v>
+          <t>invalid stamp</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/vote_results/vote_results_faster.xlsx
+++ b/output/vote_results/vote_results_faster.xlsx
@@ -476,38 +476,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>image_0017.jpg</t>
+          <t>image_0002.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>invalid_stamp</t>
+          <t>nepali_madal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>invalid</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>invalid</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>invalid</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>invalid stamp</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+          <t>invalid symbol or invalid stamp</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>215.0710346987592</v>
       </c>
     </row>
   </sheetData>
